--- a/Fide2022.xlsx
+++ b/Fide2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://autuni-my.sharepoint.com/personal/cdk6032_autuni_ac_nz/Documents/Documents/Academic Life/Master of Analytics/ENGE817 STEM Research paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="14_{CDEE3EAB-F44C-4B25-912D-88EFAA6B1F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F32910-C64F-48B1-8271-F913346AF409}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="14_{CDEE3EAB-F44C-4B25-912D-88EFAA6B1F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A0C731B-C6CF-4387-B887-22EAE3CF2A0D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{022DFF61-2CD9-461C-B878-769B9F7B253C}"/>
   </bookViews>
@@ -150,7 +150,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16132C1A-AA2D-432D-A926-4F187DD5E5BE}" name="Table1" displayName="Table1" ref="A1:F57" totalsRowShown="0">
-  <autoFilter ref="A1:F57" xr:uid="{16132C1A-AA2D-432D-A926-4F187DD5E5BE}"/>
+  <autoFilter ref="A1:F57" xr:uid="{16132C1A-AA2D-432D-A926-4F187DD5E5BE}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Radjabov"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{73269F7D-5EF6-46C3-A716-DF5E50EFB9B6}" name="Round"/>
     <tableColumn id="2" xr3:uid="{7099DBC0-689F-44FD-A6D9-8E8F19F73562}" name="WhitePlayer"/>
@@ -463,7 +469,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -512,7 +518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -532,7 +538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -552,7 +558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -572,7 +578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -612,7 +618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -632,7 +638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -652,7 +658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -672,7 +678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -692,7 +698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -712,7 +718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -732,7 +738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -752,7 +758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -792,7 +798,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -812,7 +818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -832,7 +838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -852,7 +858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -872,7 +878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -892,7 +898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -912,7 +918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -932,7 +938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6</v>
       </c>
@@ -952,7 +958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -972,7 +978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -992,7 +998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>11</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>11</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>11</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>11</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>13</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>13</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
